--- a/数据资料/样表/台帐、结算、回款信息.xlsx
+++ b/数据资料/样表/台帐、结算、回款信息.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11940" windowHeight="6450" tabRatio="501" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9750" tabRatio="501" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="补差客户结算表" sheetId="7" r:id="rId1"/>
@@ -3144,7 +3144,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
@@ -4078,8 +4078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="31.5" customHeight="1" x14ac:dyDescent="0.15"/>
